--- a/tasks4.1_26012017.xlsx
+++ b/tasks4.1_26012017.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Schedule'!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Task Schedule'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -961,11 +962,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="-1016684496"/>
-        <c:axId val="-1016679056"/>
+        <c:axId val="855808800"/>
+        <c:axId val="855810432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1016684496"/>
+        <c:axId val="855808800"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1008,7 +1009,7 @@
             <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1016679056"/>
+        <c:crossAx val="855810432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1016679056"/>
+        <c:axId val="855810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1114,7 +1115,7 @@
             <a:endParaRPr lang="zh-HK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1016684496"/>
+        <c:crossAx val="855808800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="3"/>
@@ -1509,10 +1510,10 @@
   <dimension ref="A1:J985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="17" bestFit="1" customWidth="1"/>
@@ -1746,7 +1747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3.3</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3.4</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>3.5</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>3.6</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3.7</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>3.8</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="E14" s="7"/>
@@ -1965,7 +1966,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4.3</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="E19" s="7"/>
@@ -2114,7 +2115,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>5</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="28" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>9.3000000000000007</v>
       </c>
@@ -2391,7 +2392,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="29" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>9.4</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="30" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="E30" s="7"/>
@@ -2432,7 +2433,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>10</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="33" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="36" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>10.3</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="35" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="E35" s="7"/>
@@ -11201,8 +11202,9 @@
       <formula1>$J$39:$J$45</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
